--- a/learn-unsupervised/kmeans/kresults_sentiment.xlsx
+++ b/learn-unsupervised/kmeans/kresults_sentiment.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74167B9-86E5-405F-BBFF-1BE6E9B38FA5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E661F7ED-1856-4BD0-809C-41813D56D9C8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lateEncounter" sheetId="1" r:id="rId1"/>
@@ -13,9 +13,13 @@
     <sheet name="leastResist" sheetId="3" r:id="rId3"/>
     <sheet name="sleepy" sheetId="4" r:id="rId4"/>
     <sheet name="telltale" sheetId="5" r:id="rId5"/>
+    <sheet name="eleonora" sheetId="6" r:id="rId6"/>
+    <sheet name="ghost" sheetId="7" r:id="rId7"/>
+    <sheet name="goodman" sheetId="8" r:id="rId8"/>
+    <sheet name="pelican" sheetId="9" r:id="rId9"/>
+    <sheet name="ripvan" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="179017"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +29,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
     <t>k = 5</t>
   </si>
   <si>
     <t>k = 4</t>
+  </si>
+  <si>
+    <t>k = 5 (for sake of comparing with encounter)</t>
+  </si>
+  <si>
+    <t>k  = 5</t>
   </si>
 </sst>
 </file>
@@ -314,6 +324,290 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1784020400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ripvan!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>34500.832153076</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16123.5356485058</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9883.8963045979108</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7314.5176619145404</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5294.3101716628798</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4501.5839546580301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3004.8121949996798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2442.89523464582</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2402.1222472458398</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1861.3959856525901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1622.7974706892101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0CD9-4EC7-A12A-184D6518AF89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="510492767"/>
+        <c:axId val="649561407"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="510492767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="649561407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="649561407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="510492767"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1302,7 +1596,7 @@
                   <c:v>1084.27753607055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>851.81969952131794</c:v>
+                  <c:v>842.39032680561604</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>645.23688999123499</c:v>
@@ -1505,7 +1799,1183 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>eleonora!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>16223.916474477001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8055.6285877749597</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3900.4906151796899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2309.35931372398</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1865.24081839114</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1637.3846161506999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1132.0365331007699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>971.47439181409504</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>769.57931975759504</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>819.45073496386397</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>724.95109197522504</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-820D-4AD4-A531-976887C852E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="556086239"/>
+        <c:axId val="508840959"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="556086239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508840959"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="508840959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556086239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ghost!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>7845.1011975310103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3961.0610811820502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2537.8834258802099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1673.94008386991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1231.6930076571</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>957.51312872877804</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>760.12623737435604</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>710.12163770196298</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>565.74465646057195</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500.21111883404001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>506.13033157014502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-187E-48EE-B860-118362EAC49B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="652457775"/>
+        <c:axId val="646942799"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="652457775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="646942799"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="646942799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="652457775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>goodman!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>27192.674566164202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11445.2452732332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6942.9166365169203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4774.5835283268098</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3664.8998678488601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2880.35015309967</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2590.0853253851101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2268.0857344153901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2122.1803474560102</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1774.0492837315101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1823.82652322069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AFB0-419E-BFCF-EFC2D46C354E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="510479455"/>
+        <c:axId val="656243359"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="510479455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="656243359"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="656243359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="510479455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>pelican!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>31906.518669135901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20382.968908619099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12964.4420622732</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8449.3633081561402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7891.2734214051698</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5721.5119053745302</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5451.29726849709</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3233.2281190315198</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4051.98367520494</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3306.73657951108</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2504.7201153359701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B57-4F09-9084-0A07BE59F22F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="510486527"/>
+        <c:axId val="654594719"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="510486527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="654594719"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="654594719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="510486527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1705,6 +3175,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2221,7 +3851,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2737,7 +4367,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3253,7 +4883,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3769,7 +5399,2587 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4306,6 +8516,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29A8A3A3-435C-4D86-8461-0D38F1E164A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>96520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>96520</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA9E081A-5C62-4536-A109-6EBDE5A82958}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4490,6 +8741,170 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>157480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>157480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA38D095-3C71-44A3-8C6D-8D7A166320A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94EBEE68-D5A5-4014-9281-6BA2671CC268}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ECAC5FB-0B99-4A19-AF27-67B0669176B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E50D46-3BF3-46BC-85C0-E12B0D25010A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4828,6 +9243,83 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF943A8-6ADA-459F-A9BC-441E8486787E}">
+  <dimension ref="A2:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>34500.832153076</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>16123.5356485058</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>9883.8963045979108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>7314.5176619145404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5294.3101716628798</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>4501.5839546580301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>3004.8121949996798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2442.89523464582</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2402.1222472458398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1861.3959856525901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1622.7974706892101</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D2C2B2-8899-4E9C-B7BA-9479075559B5}">
   <dimension ref="A2:C18"/>
@@ -5060,7 +9552,161 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB04BD6-8D8B-4D72-9FAE-88AE20739071}">
   <dimension ref="A2:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>3725.8686553357902</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1677.5475947194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1084.27753607055</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>842.39032680561604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>645.23688999123499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>524.492206363116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>492.86003896305499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>439.71950701104703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>395.25313423116597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>343.01108524851901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>341.14256607693102</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99809463-6160-4A21-8CEC-7F4D0E3C0FBE}">
+  <dimension ref="A2:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>16223.916474477001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>8055.6285877749597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3900.4906151796899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2309.35931372398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1865.24081839114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1637.3846161506999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1132.0365331007699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>971.47439181409504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>769.57931975759504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>819.45073496386397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>724.95109197522504</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB63BBD-78E5-4459-B401-4A9F8C198352}">
+  <dimension ref="A2:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -5068,62 +9714,216 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>3725.8686553357902</v>
+        <v>7845.1011975310103</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>1677.5475947194</v>
+        <v>3961.0610811820502</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>1084.27753607055</v>
+        <v>2537.8834258802099</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>851.81969952131794</v>
+        <v>1673.94008386991</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>645.23688999123499</v>
+        <v>1231.6930076571</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>524.492206363116</v>
+        <v>957.51312872877804</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>492.86003896305499</v>
+        <v>760.12623737435604</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>439.71950701104703</v>
+        <v>710.12163770196298</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>395.25313423116597</v>
+        <v>565.74465646057195</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>343.01108524851901</v>
+        <v>500.21111883404001</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>341.14256607693102</v>
+        <v>506.13033157014502</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F50E31-6F55-417F-A694-D5C6BC0642FA}">
+  <dimension ref="A2:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>27192.674566164202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>11445.2452732332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>6942.9166365169203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4774.5835283268098</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>3664.8998678488601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2880.35015309967</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2590.0853253851101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2268.0857344153901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2122.1803474560102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1774.0492837315101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1823.82652322069</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DAB7306-24A2-4B91-84FF-4C251BA7531D}">
+  <dimension ref="A2:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>31906.518669135901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>20382.968908619099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>12964.4420622732</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>8449.3633081561402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>7891.2734214051698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5721.5119053745302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>5451.29726849709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>3233.2281190315198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>4051.98367520494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>3306.73657951108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>2504.7201153359701</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
